--- a/backend/logs.xlsx
+++ b/backend/logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -484,9 +484,378 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>66ae7524c50a42706b6958e8</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2024-08-05T00:00:00.000Z</v>
+      </c>
+      <c r="C3" t="str">
+        <v>11:00</v>
+      </c>
+      <c r="D3" t="str">
+        <v>12:30</v>
+      </c>
+      <c r="E3" t="str">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <v>DJANGO</v>
+      </c>
+      <c r="H3" t="str">
+        <v>KIRAN</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="str">
+        <v>39</v>
+      </c>
+      <c r="K3" t="str">
+        <v>2024-08-03T18:21:24.359Z</v>
+      </c>
+      <c r="L3" t="str">
+        <v>2024-08-03T18:21:24.359Z</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>66ae758dc50a42706b6958ea</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2024-08-05T00:00:00.000Z</v>
+      </c>
+      <c r="C4" t="str">
+        <v>11:00</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1:00</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <v>AI</v>
+      </c>
+      <c r="H4" t="str">
+        <v>FATHIMA</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="str">
+        <v>6, 50</v>
+      </c>
+      <c r="K4" t="str">
+        <v>2024-08-03T18:23:09.726Z</v>
+      </c>
+      <c r="L4" t="str">
+        <v>2024-08-03T18:23:09.726Z</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>66ae759fc50a42706b6958ec</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2024-08-05T00:00:00.000Z</v>
+      </c>
+      <c r="C5" t="str">
+        <v>9:30</v>
+      </c>
+      <c r="D5" t="str">
+        <v>11:00</v>
+      </c>
+      <c r="E5" t="str">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <v>JAVA</v>
+      </c>
+      <c r="H5" t="str">
+        <v>DILJITH</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="str">
+        <v>15</v>
+      </c>
+      <c r="K5" t="str">
+        <v>2024-08-03T18:23:27.813Z</v>
+      </c>
+      <c r="L5" t="str">
+        <v>2024-08-03T18:23:27.813Z</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>66af0b80b93732646fa5db01</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2024-08-05T00:00:00.000Z</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1:00</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2:30</v>
+      </c>
+      <c r="E6" t="str">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <v>JS</v>
+      </c>
+      <c r="H6" t="str">
+        <v>SHAJU</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="str">
+        <v>31, 52, 57</v>
+      </c>
+      <c r="K6" t="str">
+        <v>2024-08-04T05:02:56.115Z</v>
+      </c>
+      <c r="L6" t="str">
+        <v>2024-08-04T05:02:56.115Z</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>66af0c55b93732646fa5db03</v>
+      </c>
+      <c r="B7" t="str">
+        <v>2024-08-05T00:00:00.000Z</v>
+      </c>
+      <c r="C7" t="str">
+        <v>11:00</v>
+      </c>
+      <c r="D7" t="str">
+        <v>12:30</v>
+      </c>
+      <c r="E7" t="str">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <v>DJANGO</v>
+      </c>
+      <c r="H7" t="str">
+        <v>KIRAN</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="str">
+        <v>1, 13</v>
+      </c>
+      <c r="K7" t="str">
+        <v>2024-08-04T05:06:29.719Z</v>
+      </c>
+      <c r="L7" t="str">
+        <v>2024-08-04T05:06:29.719Z</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>66af0da3b93732646fa5db05</v>
+      </c>
+      <c r="B8" t="str">
+        <v>2024-08-05T00:00:00.000Z</v>
+      </c>
+      <c r="C8" t="str">
+        <v>11:00</v>
+      </c>
+      <c r="D8" t="str">
+        <v>1:00</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <v>AI</v>
+      </c>
+      <c r="H8" t="str">
+        <v>FATHIMA</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="str">
+        <v>61</v>
+      </c>
+      <c r="K8" t="str">
+        <v>2024-08-04T05:12:03.608Z</v>
+      </c>
+      <c r="L8" t="str">
+        <v>2024-08-04T05:12:03.608Z</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>66af10773492976b0dfe0d2d</v>
+      </c>
+      <c r="B9" t="str">
+        <v>2024-08-19T00:00:00.000Z</v>
+      </c>
+      <c r="C9" t="str">
+        <v>11:00</v>
+      </c>
+      <c r="D9" t="str">
+        <v>1:00</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <v>AI</v>
+      </c>
+      <c r="H9" t="str">
+        <v>FATHIMA</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="str">
+        <v>51</v>
+      </c>
+      <c r="K9" t="str">
+        <v>2024-08-04T05:24:07.553Z</v>
+      </c>
+      <c r="L9" t="str">
+        <v>2024-08-04T05:24:07.553Z</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>66af10a93492976b0dfe0d2f</v>
+      </c>
+      <c r="B10" t="str">
+        <v>2024-08-12T00:00:00.000Z</v>
+      </c>
+      <c r="C10" t="str">
+        <v>11:00</v>
+      </c>
+      <c r="D10" t="str">
+        <v>12:30</v>
+      </c>
+      <c r="E10" t="str">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <v>DJANGO</v>
+      </c>
+      <c r="H10" t="str">
+        <v>KIRAN</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="str">
+        <v>65</v>
+      </c>
+      <c r="K10" t="str">
+        <v>2024-08-04T05:24:57.326Z</v>
+      </c>
+      <c r="L10" t="str">
+        <v>2024-08-04T05:24:57.326Z</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>66af1125680531b7060cbdff</v>
+      </c>
+      <c r="B11" t="str">
+        <v>2024-08-19T00:00:00.000Z</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2:00</v>
+      </c>
+      <c r="D11" t="str">
+        <v>4:00</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <v>SE</v>
+      </c>
+      <c r="H11" t="str">
+        <v>SHOBY</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v>2024-08-04T05:27:01.672Z</v>
+      </c>
+      <c r="L11" t="str">
+        <v>2024-08-04T05:27:01.672Z</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M11"/>
   </ignoredErrors>
 </worksheet>
 </file>